--- a/plasmidisodaata.xlsx
+++ b/plasmidisodaata.xlsx
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>resistance</t>
   </si>
   <si>
-    <t>coloney</t>
+    <t>1 = kan 2 =cmp,3=cip4=tet</t>
   </si>
   <si>
-    <t>1 = kan 2 =cmp,3=cip4=tet</t>
+    <t>colony</t>
   </si>
 </sst>
 </file>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +377,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>30</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -909,12 +909,351 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>30</v>
       </c>
       <c r="B67">
         <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>33</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>33</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>34</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>35</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>37</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>37</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>37</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>37</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>38</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>39</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>39</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>39</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>39</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>40</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>40</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>40</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>41</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>42</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>42</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>43</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>36</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>44</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>44</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>44</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>44</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>45</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>45</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>45</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>45</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>46</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>46</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>46</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>46</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
